--- a/examples/import_only/documents/Assets/Payment/Wechat/2019-09-30.微信支付账单流水文件(20190801-20190930)——【解压密码可在微信支付公众号查看】.xlsx
+++ b/examples/import_only/documents/Assets/Payment/Wechat/2019-09-30.微信支付账单流水文件(20190801-20190930)——【解压密码可在微信支付公众号查看】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="182">
   <si>
     <t>微信支付账单明细</t>
   </si>
@@ -503,6 +503,39 @@
   </si>
   <si>
     <t>¥50.0</t>
+  </si>
+  <si>
+    <t>2025-12-10 17:27:37</t>
+  </si>
+  <si>
+    <t>美团平台商户-退款</t>
+  </si>
+  <si>
+    <t>¥0.11</t>
+  </si>
+  <si>
+    <t>已退款￥0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456 </t>
+  </si>
+  <si>
+    <t>2025-12-10 17:19:40</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>物美（xxxx店）-美团App-123456</t>
+  </si>
+  <si>
+    <t>¥50.71</t>
+  </si>
+  <si>
+    <t>已退款(￥0.11)</t>
+  </si>
+  <si>
+    <t>已优惠¥0.77</t>
   </si>
   <si>
     <t>2024-06-07 23:40:27</t>
@@ -873,7 +906,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -892,7 +925,7 @@
     <col min="11" max="11" style="2" width="4.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +940,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -922,7 +955,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -937,7 +970,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -952,7 +985,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -980,7 +1013,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1028,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1043,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1058,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1073,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1088,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1103,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1118,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1146,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1161,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2038,7 +2071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
@@ -2046,30 +2079,98 @@
         <v>164</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="I43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+      <c r="A45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="I45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
